--- a/plan/excel/break_关卡表.xlsx
+++ b/plan/excel/break_关卡表.xlsx
@@ -161,7 +161,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,7 +467,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,7 +527,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>2001</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -538,7 +538,7 @@
         <v>200</v>
       </c>
       <c r="C6">
-        <v>2001</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -549,7 +549,7 @@
         <v>300</v>
       </c>
       <c r="C7">
-        <v>2001</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -560,7 +560,7 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>2001</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -571,7 +571,7 @@
         <v>500</v>
       </c>
       <c r="C9">
-        <v>2001</v>
+        <v>10005</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -582,7 +582,7 @@
         <v>600</v>
       </c>
       <c r="C10">
-        <v>2001</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -593,7 +593,7 @@
         <v>700</v>
       </c>
       <c r="C11">
-        <v>2001</v>
+        <v>10007</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/break_关卡表.xlsx
+++ b/plan/excel/break_关卡表.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Break" sheetId="4" r:id="rId1"/>
+    <sheet name="Chapter" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Break!$A$1:$B$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Break!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,6 +91,152 @@
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级要求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>openLv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>先诛少林</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后灭武当</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>breakStart</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始关卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束关卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>breakEnd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节完成奖励</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>独步武林</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束对话</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始对话</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>startCgid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>endCgid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林寺1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林寺2</t>
+  </si>
+  <si>
+    <t>少林寺3</t>
+  </si>
+  <si>
+    <t>武当山1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当山2</t>
+  </si>
+  <si>
+    <t>武当山3</t>
+  </si>
+  <si>
+    <t>武当山4</t>
+  </si>
+  <si>
+    <t>论剑1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>论剑2</t>
+  </si>
+  <si>
+    <t>论剑3</t>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -463,137 +610,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>100</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>10001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>200</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>300</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>10003</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
         <v>400</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>10004</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>500</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>10005</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
         <v>600</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>10006</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
         <v>700</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>10007</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>700</v>
+      </c>
+      <c r="F12">
+        <v>10007</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>700</v>
+      </c>
+      <c r="F13">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>700</v>
+      </c>
+      <c r="F14">
+        <v>10007</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -601,4 +920,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>10002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan/excel/break_关卡表.xlsx
+++ b/plan/excel/break_关卡表.xlsx
@@ -17,8 +17,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+每分钟一次</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -49,10 +85,6 @@
   </si>
   <si>
     <t>teamId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -239,12 +271,24 @@
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>通过掉落</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机掉落</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lootId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +322,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -609,12 +668,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -623,37 +682,40 @@
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -668,45 +730,51 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -715,21 +783,24 @@
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -741,18 +812,21 @@
         <v>10001</v>
       </c>
       <c r="G5">
+        <v>10001</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -763,13 +837,16 @@
       <c r="F6">
         <v>10002</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -780,16 +857,19 @@
       <c r="F7">
         <v>10003</v>
       </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G7">
+        <v>10003</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -801,15 +881,18 @@
         <v>10004</v>
       </c>
       <c r="G8">
+        <v>10004</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -820,13 +903,16 @@
       <c r="F9">
         <v>10005</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G9">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -837,13 +923,16 @@
       <c r="F10">
         <v>10006</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G10">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -854,16 +943,19 @@
       <c r="F11">
         <v>10007</v>
       </c>
-      <c r="H11">
+      <c r="G11">
+        <v>10007</v>
+      </c>
+      <c r="I11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -875,15 +967,18 @@
         <v>10007</v>
       </c>
       <c r="G12">
+        <v>10007</v>
+      </c>
+      <c r="H12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -894,13 +989,16 @@
       <c r="F13">
         <v>10007</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G13">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -911,7 +1009,10 @@
       <c r="F14">
         <v>10007</v>
       </c>
-      <c r="H14">
+      <c r="G14">
+        <v>10007</v>
+      </c>
+      <c r="I14">
         <v>7</v>
       </c>
     </row>
@@ -919,6 +1020,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -943,22 +1045,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -970,10 +1072,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -981,20 +1083,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1003,7 +1105,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -1021,7 +1123,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1039,7 +1141,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1056,7 +1158,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>8</v>

--- a/plan/excel/break_关卡表.xlsx
+++ b/plan/excel/break_关卡表.xlsx
@@ -80,10 +80,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>breakId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>teamId</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -282,6 +278,10 @@
   <si>
     <t>lootId</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,28 +691,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -730,43 +730,43 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -786,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>3</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -869,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -892,7 +892,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -912,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -932,7 +932,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -955,7 +955,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -978,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1045,22 +1045,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -1072,10 +1072,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -1083,20 +1083,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>8</v>

--- a/plan/excel/break_关卡表.xlsx
+++ b/plan/excel/break_关卡表.xlsx
@@ -673,7 +673,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>10001</v>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>10002</v>
@@ -852,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>10003</v>
@@ -875,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>10004</v>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>10005</v>
@@ -918,7 +918,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>10006</v>
@@ -938,7 +938,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>700</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>10007</v>
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>700</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>10007</v>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>700</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>10007</v>
@@ -1004,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <v>700</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>10007</v>

--- a/plan/excel/break_关卡表.xlsx
+++ b/plan/excel/break_关卡表.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="G1" authorId="0" shapeId="0">
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,7 +91,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -108,7 +108,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -169,7 +169,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -231,39 +231,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>少林寺1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林寺2</t>
-  </si>
-  <si>
-    <t>少林寺3</t>
-  </si>
-  <si>
-    <t>武当山1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当山2</t>
-  </si>
-  <si>
-    <t>武当山3</t>
-  </si>
-  <si>
-    <t>武当山4</t>
-  </si>
-  <si>
-    <t>论剑1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>论剑2</t>
-  </si>
-  <si>
-    <t>论剑3</t>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -282,17 +249,71 @@
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓几只野兔</t>
+  </si>
+  <si>
+    <t>木桩试剑</t>
+  </si>
+  <si>
+    <t>实战凶狼</t>
+  </si>
+  <si>
+    <t>阿幺的考验</t>
+  </si>
+  <si>
+    <t>村口的强盗</t>
+  </si>
+  <si>
+    <t>荒野岭土匪</t>
+  </si>
+  <si>
+    <t>土匪救援</t>
+  </si>
+  <si>
+    <t>收土匪头目</t>
+  </si>
+  <si>
+    <t>嚣张的家仆</t>
+  </si>
+  <si>
+    <t>打手出现</t>
+  </si>
+  <si>
+    <t>管家跋扈</t>
+  </si>
+  <si>
+    <t>打手齐上</t>
+  </si>
+  <si>
+    <t>伪善财主</t>
+  </si>
+  <si>
+    <t>不听解释的衙役</t>
+  </si>
+  <si>
+    <t>蛮横的衙役头目</t>
+  </si>
+  <si>
+    <t>师爷出面</t>
+  </si>
+  <si>
+    <t>全体出动</t>
+  </si>
+  <si>
+    <t>贪官的实力</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -311,14 +332,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -359,15 +380,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -383,7 +405,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -669,24 +691,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -703,10 +725,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -715,7 +737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -742,9 +764,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -760,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>32</v>
@@ -769,12 +791,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -795,12 +817,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -821,12 +843,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -841,12 +863,12 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -864,12 +886,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -887,12 +909,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -907,12 +929,12 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -927,12 +949,12 @@
         <v>10006</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -950,12 +972,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -973,12 +995,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -993,12 +1015,12 @@
         <v>10007</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1014,6 +1036,166 @@
       </c>
       <c r="I14">
         <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>10007</v>
+      </c>
+      <c r="G15">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>10007</v>
+      </c>
+      <c r="G16">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>10007</v>
+      </c>
+      <c r="G17">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>10007</v>
+      </c>
+      <c r="G18">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>10007</v>
+      </c>
+      <c r="G19">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>10007</v>
+      </c>
+      <c r="G20">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>10007</v>
+      </c>
+      <c r="G21">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>10007</v>
+      </c>
+      <c r="G22">
+        <v>10007</v>
       </c>
     </row>
   </sheetData>
@@ -1032,18 +1214,18 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1081,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1099,13 +1281,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -1117,7 +1299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1135,7 +1317,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1153,7 +1335,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>3</v>
       </c>
